--- a/TP Labo.xlsx
+++ b/TP Labo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel-Pentium\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel-Pentium\Documents\GitHub\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B039CB3F-A98B-4399-86E4-2F270C8C2C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9C02D4-828D-4999-A635-2AAD75710820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{20118FB4-9FAA-4452-8E10-A532ECB2795D}"/>
   </bookViews>
@@ -717,7 +717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745E18C5-E32C-461E-B794-7FB3EE38D00A}">
   <dimension ref="B2:O82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -1486,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A08A45-A728-4B3B-83B6-A18CBEFD6191}">
   <dimension ref="A2:C17"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TP Labo.xlsx
+++ b/TP Labo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel-Pentium\Documents\GitHub\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9C02D4-828D-4999-A635-2AAD75710820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBD6973-4F14-4204-956F-54C269480443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{20118FB4-9FAA-4452-8E10-A532ECB2795D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
   <si>
     <t>Producto</t>
   </si>
@@ -265,6 +265,27 @@
   </si>
   <si>
     <t>fechaRetiro</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Harina</t>
+  </si>
+  <si>
+    <t>Aceite</t>
+  </si>
+  <si>
+    <t>Azucar</t>
+  </si>
+  <si>
+    <t>Huevos</t>
+  </si>
+  <si>
+    <t>Fideos</t>
+  </si>
+  <si>
+    <t>Crema</t>
   </si>
 </sst>
 </file>
@@ -364,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -387,6 +408,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -715,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745E18C5-E32C-461E-B794-7FB3EE38D00A}">
-  <dimension ref="B2:O82"/>
+  <dimension ref="B2:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,11 +765,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -792,88 +816,100 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
         <v>1111</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>2</v>
       </c>
-      <c r="F11" s="2">
-        <v>4</v>
+      <c r="G11" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
+      <c r="B12" s="12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
         <v>2222</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>3</v>
       </c>
-      <c r="F12" s="2">
-        <v>2</v>
+      <c r="G12" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
+      <c r="B13" s="12">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
         <v>3333</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
       <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="4"/>
       <c r="O16" s="4"/>
     </row>
@@ -920,371 +956,415 @@
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
+      <c r="B20" s="12">
         <v>3</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="12">
         <v>1</v>
       </c>
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
+      <c r="B21" s="12">
         <v>5</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
+      <c r="D21" s="12">
+        <v>1</v>
+      </c>
+      <c r="O21" s="4"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
+      <c r="B22" s="12">
         <v>6</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
+      <c r="D22" s="12">
+        <v>1</v>
+      </c>
+      <c r="O22" s="4"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
+      <c r="B23" s="12">
         <v>7</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
+      <c r="D23" s="12">
+        <v>1</v>
+      </c>
+      <c r="O23" s="4"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="2">
+      <c r="B24" s="12">
         <v>8</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="M24" s="4"/>
+      <c r="D24" s="12">
+        <v>1</v>
+      </c>
+      <c r="O24" s="4"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="M25" s="4"/>
+      <c r="B25" s="2">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="O25" s="4"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="M26" s="4"/>
+      <c r="B26" s="2">
+        <v>10</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="M27" s="4"/>
+      <c r="B27" s="2">
+        <v>11</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>64</v>
+      <c r="B28" s="2">
+        <v>12</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M28" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="2">
-        <v>1</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="9">
-        <v>44479</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
+      <c r="B29" s="12">
+        <v>13</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="12">
+        <v>1</v>
+      </c>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
+        <v>14</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="18"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="9">
+        <v>44479</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
         <v>2</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D36" s="9">
         <v>44686</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E36" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="2">
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
         <v>3</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D37" s="9">
         <v>44533</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="3" t="s">
+      <c r="E37" s="10"/>
+      <c r="F37" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="2">
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
         <v>4</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D38" s="9">
         <v>44699</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E38" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="12" t="s">
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="2">
-        <v>1</v>
-      </c>
-      <c r="C37" s="3" t="s">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="2">
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
         <v>2</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="2">
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
         <v>3</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="4"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="12" t="s">
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="12"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
+      <c r="C48" s="13"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="3">
         <v>3</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C50" s="3">
         <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="3">
-        <v>7</v>
-      </c>
-      <c r="C45" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C51" s="3">
-        <v>3</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E51" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="3">
-        <v>2</v>
-      </c>
-      <c r="C52" s="3">
-        <v>4</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C55" s="12"/>
+      <c r="B55" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="3">
+        <v>1</v>
+      </c>
+      <c r="C57" s="3">
+        <v>3</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="3">
+        <v>2</v>
+      </c>
+      <c r="C58" s="3">
+        <v>4</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="13"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="2">
-        <v>1</v>
-      </c>
-      <c r="C57" s="11">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+      <c r="C63" s="11">
         <v>44479</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="2">
-        <v>2</v>
-      </c>
-      <c r="C58" s="11">
-        <v>44479</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="2">
-        <v>1</v>
-      </c>
-      <c r="C59" s="11">
-        <v>44484</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" s="12"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
@@ -1303,125 +1383,97 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="2">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" s="13"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="2">
+        <v>2</v>
+      </c>
+      <c r="C70" s="11">
+        <v>44479</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="2">
+        <v>1</v>
+      </c>
+      <c r="C71" s="11">
+        <v>44484</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="2">
         <v>3</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C72" s="11">
         <v>44483</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="2">
-        <v>1</v>
-      </c>
-      <c r="C67" s="11">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="2">
+        <v>1</v>
+      </c>
+      <c r="C73" s="11">
         <v>44488</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="12" t="s">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="2" t="s">
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="3">
-        <v>1</v>
-      </c>
-      <c r="C72" s="3">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="3">
+        <v>1</v>
+      </c>
+      <c r="C78" s="3">
         <v>1111</v>
       </c>
-      <c r="D72" s="3">
-        <v>1</v>
-      </c>
-      <c r="E72" s="9">
+      <c r="D78" s="3">
+        <v>1</v>
+      </c>
+      <c r="E78" s="9">
         <v>44479</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="3">
-        <v>2</v>
-      </c>
-      <c r="C73" s="3">
-        <v>222</v>
-      </c>
-      <c r="D73" s="3">
-        <v>3</v>
-      </c>
-      <c r="E73" s="9">
-        <v>44479</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="3">
-        <v>3</v>
-      </c>
-      <c r="C74" s="3">
-        <v>111</v>
-      </c>
-      <c r="D74" s="3">
-        <v>4</v>
-      </c>
-      <c r="E74" s="9">
-        <v>44479</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="3">
-        <v>4</v>
-      </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C79" s="3">
-        <v>1111</v>
+        <v>222</v>
       </c>
       <c r="D79" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E79" s="9">
         <v>44479</v>
@@ -1429,13 +1481,13 @@
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C80" s="3">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="D80" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E80" s="9">
         <v>44479</v>
@@ -1443,39 +1495,97 @@
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
+        <v>4</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="3">
+        <v>1</v>
+      </c>
+      <c r="C85" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D85" s="3">
+        <v>1</v>
+      </c>
+      <c r="E85" s="9">
+        <v>44479</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="3">
+        <v>2</v>
+      </c>
+      <c r="C86" s="3">
+        <v>222</v>
+      </c>
+      <c r="D86" s="3">
         <v>3</v>
       </c>
-      <c r="C81" s="3">
+      <c r="E86" s="9">
+        <v>44479</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="3">
+        <v>3</v>
+      </c>
+      <c r="C87" s="3">
         <v>111</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D87" s="3">
         <v>4</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E87" s="9">
         <v>44479</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="3">
         <v>4</v>
       </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B83:E83"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B61:C61"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B41:D41"/>
     <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B48:C48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TP Labo.xlsx
+++ b/TP Labo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel-Pentium\Documents\GitHub\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBD6973-4F14-4204-956F-54C269480443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0725D2-E9A4-4E8D-B4E1-021B9B65F3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{20118FB4-9FAA-4452-8E10-A532ECB2795D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
   <si>
     <t>Producto</t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>Crema</t>
+  </si>
+  <si>
+    <t>es como agregar u producto?</t>
+  </si>
+  <si>
+    <t>es como dar de baja del stock?</t>
   </si>
 </sst>
 </file>
@@ -741,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745E18C5-E32C-461E-B794-7FB3EE38D00A}">
   <dimension ref="B2:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,7 +975,7 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>4</v>
@@ -981,7 +987,7 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>5</v>
@@ -993,7 +999,7 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>19</v>
@@ -1005,7 +1011,7 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>21</v>
@@ -1017,7 +1023,7 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>78</v>
@@ -1029,7 +1035,7 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>79</v>
@@ -1040,7 +1046,7 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>80</v>
@@ -1051,7 +1057,7 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>81</v>
@@ -1065,7 +1071,7 @@
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>82</v>
@@ -1079,7 +1085,7 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>83</v>
@@ -1375,7 +1381,7 @@
         <v>44479</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="2">
         <v>1</v>
       </c>
@@ -1383,13 +1389,13 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C68" s="13"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>53</v>
       </c>
@@ -1397,7 +1403,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="2">
         <v>2</v>
       </c>
@@ -1405,7 +1411,7 @@
         <v>44479</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
         <v>1</v>
       </c>
@@ -1413,7 +1419,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="2">
         <v>3</v>
       </c>
@@ -1421,7 +1427,7 @@
         <v>44483</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="2">
         <v>1</v>
       </c>
@@ -1429,15 +1435,18 @@
         <v>44488</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="13" t="s">
         <v>50</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>73</v>
       </c>
@@ -1451,7 +1460,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="3">
         <v>1</v>
       </c>
@@ -1465,7 +1474,7 @@
         <v>44479</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="3">
         <v>2</v>
       </c>
@@ -1479,7 +1488,7 @@
         <v>44479</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="3">
         <v>3</v>
       </c>
@@ -1493,7 +1502,7 @@
         <v>44479</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
         <v>4</v>
       </c>
@@ -1501,15 +1510,18 @@
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
         <v>75</v>
       </c>
@@ -1523,7 +1535,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="3">
         <v>1</v>
       </c>
@@ -1537,7 +1549,7 @@
         <v>44479</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
         <v>2</v>
       </c>
@@ -1551,7 +1563,7 @@
         <v>44479</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
         <v>3</v>
       </c>
@@ -1565,7 +1577,7 @@
         <v>44479</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
         <v>4</v>
       </c>

--- a/TP Labo.xlsx
+++ b/TP Labo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel-Pentium\Documents\GitHub\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Practicas\Facultad\LABO2\Pruebagit\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0725D2-E9A4-4E8D-B4E1-021B9B65F3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F152B9-4A25-42D6-B4F9-3034A9ABB4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{20118FB4-9FAA-4452-8E10-A532ECB2795D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{20118FB4-9FAA-4452-8E10-A532ECB2795D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
   <si>
     <t>Producto</t>
   </si>
@@ -114,12 +114,6 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>[1,2,3]</t>
-  </si>
-  <si>
-    <t>[1,5,7,8]</t>
-  </si>
-  <si>
     <t>Receta</t>
   </si>
   <si>
@@ -132,9 +126,6 @@
     <t>Pizza</t>
   </si>
   <si>
-    <t>[10,15]</t>
-  </si>
-  <si>
     <t>ConsumoPlatillo</t>
   </si>
   <si>
@@ -237,9 +228,6 @@
     <t>fechaRegistrado</t>
   </si>
   <si>
-    <t>ingredientes</t>
-  </si>
-  <si>
     <t>estadoPlatillo</t>
   </si>
   <si>
@@ -292,6 +280,15 @@
   </si>
   <si>
     <t>es como dar de baja del stock?</t>
+  </si>
+  <si>
+    <t>ProductosxPlatillo</t>
+  </si>
+  <si>
+    <t>IdProducto</t>
+  </si>
+  <si>
+    <t>Idplatillo</t>
   </si>
 </sst>
 </file>
@@ -391,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -410,9 +407,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -431,6 +425,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745E18C5-E32C-461E-B794-7FB3EE38D00A}">
   <dimension ref="B2:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,21 +774,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
@@ -822,36 +825,36 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>1</v>
       </c>
       <c r="C11" s="2">
@@ -871,7 +874,7 @@
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>2</v>
       </c>
       <c r="C12" s="2">
@@ -891,7 +894,7 @@
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>3</v>
       </c>
       <c r="C13" s="2">
@@ -911,23 +914,23 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="4"/>
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="4"/>
@@ -962,61 +965,61 @@
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>3</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>1</v>
       </c>
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>4</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <v>1</v>
       </c>
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <v>5</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <v>1</v>
       </c>
       <c r="O22" s="4"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="12">
+      <c r="B23" s="11">
         <v>6</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="11">
         <v>1</v>
       </c>
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>7</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="11">
         <v>1</v>
       </c>
       <c r="O24" s="4"/>
@@ -1026,7 +1029,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -1038,7 +1041,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -1049,7 +1052,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -1060,7 +1063,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -1070,13 +1073,13 @@
       <c r="O28" s="6"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="12">
+      <c r="B29" s="11">
         <v>12</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="12">
+      <c r="C29" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="11">
         <v>1</v>
       </c>
       <c r="M29" s="6"/>
@@ -1088,7 +1091,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -1102,34 +1105,31 @@
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="17"/>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="M34" s="5"/>
     </row>
@@ -1143,13 +1143,10 @@
       <c r="D35" s="9">
         <v>44479</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1163,13 +1160,10 @@
       <c r="D36" s="9">
         <v>44686</v>
       </c>
-      <c r="E36" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="3">
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1183,11 +1177,10 @@
       <c r="D37" s="9">
         <v>44533</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" s="3">
+      <c r="E37" s="3">
+        <v>2</v>
+      </c>
+      <c r="F37" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1196,37 +1189,44 @@
         <v>4</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D38" s="9">
         <v>44699</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="3">
+      <c r="E38" s="3">
+        <v>3</v>
+      </c>
+      <c r="F38" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="F41" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G41" s="18"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
@@ -1237,6 +1237,12 @@
         <v>11</v>
       </c>
       <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="20">
+        <v>3</v>
+      </c>
+      <c r="G43" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1250,6 +1256,12 @@
       <c r="D44" s="3">
         <v>1</v>
       </c>
+      <c r="F44" s="20">
+        <v>9</v>
+      </c>
+      <c r="G44" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
@@ -1259,6 +1271,12 @@
         <v>23</v>
       </c>
       <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="20">
+        <v>10</v>
+      </c>
+      <c r="G45" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1268,17 +1286,17 @@
       <c r="D46" s="7"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="13"/>
+      <c r="C48" s="12"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
@@ -1302,25 +1320,25 @@
       <c r="C52" s="3"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
+      <c r="B55" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
@@ -1331,7 +1349,7 @@
         <v>3</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E57" s="3">
         <v>1</v>
@@ -1345,31 +1363,31 @@
         <v>4</v>
       </c>
       <c r="D58" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E58" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C61" s="13"/>
+      <c r="C61" s="12"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
         <v>1</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C63" s="10">
         <v>44479</v>
       </c>
     </row>
@@ -1377,7 +1395,7 @@
       <c r="B64" s="2">
         <v>2</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C64" s="10">
         <v>44479</v>
       </c>
     </row>
@@ -1385,29 +1403,29 @@
       <c r="B65" s="2">
         <v>1</v>
       </c>
-      <c r="C65" s="11">
+      <c r="C65" s="10">
         <v>44484</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C68" s="13"/>
+      <c r="B68" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" s="12"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="2">
         <v>2</v>
       </c>
-      <c r="C70" s="11">
+      <c r="C70" s="10">
         <v>44479</v>
       </c>
     </row>
@@ -1415,7 +1433,7 @@
       <c r="B71" s="2">
         <v>1</v>
       </c>
-      <c r="C71" s="11">
+      <c r="C71" s="10">
         <v>44484</v>
       </c>
     </row>
@@ -1423,7 +1441,7 @@
       <c r="B72" s="2">
         <v>3</v>
       </c>
-      <c r="C72" s="11">
+      <c r="C72" s="10">
         <v>44483</v>
       </c>
     </row>
@@ -1431,33 +1449,33 @@
       <c r="B73" s="2">
         <v>1</v>
       </c>
-      <c r="C73" s="11">
+      <c r="C73" s="10">
         <v>44488</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
+      <c r="B76" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
       <c r="F76" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
@@ -1511,28 +1529,28 @@
       <c r="E81" s="3"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
+      <c r="B83" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
       <c r="F83" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
@@ -1586,7 +1604,7 @@
       <c r="E88" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="B76:E76"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B2:D2"/>
@@ -1598,6 +1616,7 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B55:E55"/>
     <mergeCell ref="B48:C48"/>
+    <mergeCell ref="F41:G41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1622,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1630,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1638,7 +1657,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1658,39 +1677,39 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
         <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1698,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1706,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1714,7 +1733,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/TP Labo.xlsx
+++ b/TP Labo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Practicas\Facultad\LABO2\Pruebagit\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel-Pentium\Documents\GitHub\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F152B9-4A25-42D6-B4F9-3034A9ABB4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F773C7A-E5A6-4FFF-8C29-F33C6E3F7A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{20118FB4-9FAA-4452-8E10-A532ECB2795D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{20118FB4-9FAA-4452-8E10-A532ECB2795D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
   <si>
     <t>Producto</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>Idplatillo</t>
+  </si>
+  <si>
+    <t>dniUsuario</t>
   </si>
 </sst>
 </file>
@@ -324,7 +327,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -384,11 +387,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -416,10 +432,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -428,12 +450,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745E18C5-E32C-461E-B794-7FB3EE38D00A}">
   <dimension ref="B2:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,11 +794,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -825,13 +845,13 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
@@ -914,26 +934,31 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="4"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="4"/>
       <c r="G17" s="5"/>
       <c r="O17" s="7"/>
     </row>
@@ -944,11 +969,15 @@
       <c r="C18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="D18" s="12">
+        <v>1111</v>
+      </c>
+      <c r="E18" s="9">
+        <v>43835</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
       <c r="G18" s="5"/>
       <c r="O18" s="4"/>
     </row>
@@ -959,7 +988,13 @@
       <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="12">
+        <v>2222</v>
+      </c>
+      <c r="E19" s="9">
+        <v>44656</v>
+      </c>
+      <c r="F19" s="2">
         <v>1</v>
       </c>
       <c r="O19" s="4"/>
@@ -971,7 +1006,13 @@
       <c r="C20" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="12">
+        <v>3333</v>
+      </c>
+      <c r="E20" s="9">
+        <v>43811</v>
+      </c>
+      <c r="F20" s="11">
         <v>1</v>
       </c>
       <c r="O20" s="4"/>
@@ -983,7 +1024,13 @@
       <c r="C21" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="12">
+        <v>1111</v>
+      </c>
+      <c r="E21" s="9">
+        <v>44088</v>
+      </c>
+      <c r="F21" s="11">
         <v>1</v>
       </c>
       <c r="O21" s="4"/>
@@ -995,7 +1042,13 @@
       <c r="C22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="12">
+        <v>2222</v>
+      </c>
+      <c r="E22" s="9">
+        <v>43835</v>
+      </c>
+      <c r="F22" s="11">
         <v>1</v>
       </c>
       <c r="O22" s="4"/>
@@ -1007,7 +1060,13 @@
       <c r="C23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="12">
+        <v>3333</v>
+      </c>
+      <c r="E23" s="9">
+        <v>44656</v>
+      </c>
+      <c r="F23" s="11">
         <v>1</v>
       </c>
       <c r="O23" s="4"/>
@@ -1019,7 +1078,13 @@
       <c r="C24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="12">
+        <v>1111</v>
+      </c>
+      <c r="E24" s="9">
+        <v>43811</v>
+      </c>
+      <c r="F24" s="11">
         <v>1</v>
       </c>
       <c r="O24" s="4"/>
@@ -1031,7 +1096,13 @@
       <c r="C25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="12">
+        <v>2222</v>
+      </c>
+      <c r="E25" s="9">
+        <v>44088</v>
+      </c>
+      <c r="F25" s="2">
         <v>1</v>
       </c>
       <c r="O25" s="4"/>
@@ -1043,7 +1114,13 @@
       <c r="C26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="12">
+        <v>3333</v>
+      </c>
+      <c r="E26" s="9">
+        <v>44022</v>
+      </c>
+      <c r="F26" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1054,7 +1131,13 @@
       <c r="C27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="12">
+        <v>1111</v>
+      </c>
+      <c r="E27" s="9">
+        <v>43835</v>
+      </c>
+      <c r="F27" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1065,7 +1148,13 @@
       <c r="C28" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="12">
+        <v>2222</v>
+      </c>
+      <c r="E28" s="9">
+        <v>44656</v>
+      </c>
+      <c r="F28" s="2">
         <v>1</v>
       </c>
       <c r="M28" s="6"/>
@@ -1079,7 +1168,13 @@
       <c r="C29" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="12">
+        <v>3333</v>
+      </c>
+      <c r="E29" s="9">
+        <v>43811</v>
+      </c>
+      <c r="F29" s="11">
         <v>1</v>
       </c>
       <c r="M29" s="6"/>
@@ -1093,7 +1188,13 @@
       <c r="C30" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="12">
+        <v>2222</v>
+      </c>
+      <c r="E30" s="9">
+        <v>44412</v>
+      </c>
+      <c r="F30" s="2">
         <v>1</v>
       </c>
       <c r="M30" s="4"/>
@@ -1105,14 +1206,14 @@
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="17"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -1202,15 +1303,15 @@
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="F41" s="18" t="s">
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="F41" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="G41" s="18"/>
+      <c r="G41" s="20"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
@@ -1222,10 +1323,10 @@
       <c r="D42" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="G42" s="19" t="s">
+      <c r="G42" s="13" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1239,10 +1340,10 @@
       <c r="D43" s="3">
         <v>1</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F43" s="14">
         <v>3</v>
       </c>
-      <c r="G43" s="20">
+      <c r="G43" s="14">
         <v>1</v>
       </c>
     </row>
@@ -1256,10 +1357,10 @@
       <c r="D44" s="3">
         <v>1</v>
       </c>
-      <c r="F44" s="20">
+      <c r="F44" s="14">
         <v>9</v>
       </c>
-      <c r="G44" s="20">
+      <c r="G44" s="14">
         <v>1</v>
       </c>
     </row>
@@ -1273,10 +1374,10 @@
       <c r="D45" s="3">
         <v>1</v>
       </c>
-      <c r="F45" s="20">
+      <c r="F45" s="14">
         <v>10</v>
       </c>
-      <c r="G45" s="20">
+      <c r="G45" s="14">
         <v>1</v>
       </c>
     </row>
@@ -1286,10 +1387,10 @@
       <c r="D46" s="7"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="12"/>
+      <c r="C48" s="15"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
@@ -1320,12 +1421,12 @@
       <c r="C52" s="3"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
@@ -1370,10 +1471,10 @@
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="12"/>
+      <c r="C61" s="15"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
@@ -1408,10 +1509,10 @@
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="12"/>
+      <c r="C68" s="15"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
@@ -1454,12 +1555,12 @@
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
       <c r="F76" t="s">
         <v>80</v>
       </c>
@@ -1529,12 +1630,12 @@
       <c r="E81" s="3"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
       <c r="F83" t="s">
         <v>81</v>
       </c>
@@ -1610,13 +1711,13 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B16:D16"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B55:E55"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TP Labo.xlsx
+++ b/TP Labo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel-Pentium\Documents\GitHub\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F773C7A-E5A6-4FFF-8C29-F33C6E3F7A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C85F0E-C230-4401-9FF4-81A644627C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{20118FB4-9FAA-4452-8E10-A532ECB2795D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
   <si>
     <t>Producto</t>
   </si>
@@ -285,21 +285,26 @@
     <t>ProductosxPlatillo</t>
   </si>
   <si>
-    <t>IdProducto</t>
-  </si>
-  <si>
     <t>Idplatillo</t>
   </si>
   <si>
-    <t>dniUsuario</t>
+    <t>Idproducto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -404,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -430,13 +435,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -450,10 +458,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,7 +779,7 @@
   <dimension ref="B2:O88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,11 +802,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -845,13 +853,13 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
@@ -934,31 +942,26 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="21" t="s">
+      <c r="D17" s="15" t="s">
         <v>45</v>
       </c>
+      <c r="E17" s="4"/>
       <c r="G17" s="5"/>
       <c r="O17" s="7"/>
     </row>
@@ -969,15 +972,10 @@
       <c r="C18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="12">
-        <v>1111</v>
-      </c>
-      <c r="E18" s="9">
-        <v>43835</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
+      <c r="D18" s="14">
+        <v>1</v>
+      </c>
+      <c r="E18" s="24"/>
       <c r="G18" s="5"/>
       <c r="O18" s="4"/>
     </row>
@@ -988,15 +986,10 @@
       <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="12">
-        <v>2222</v>
-      </c>
-      <c r="E19" s="9">
-        <v>44656</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
+      <c r="D19" s="14">
+        <v>1</v>
+      </c>
+      <c r="E19" s="24"/>
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
@@ -1006,15 +999,10 @@
       <c r="C20" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="12">
-        <v>3333</v>
-      </c>
-      <c r="E20" s="9">
-        <v>43811</v>
-      </c>
-      <c r="F20" s="11">
-        <v>1</v>
-      </c>
+      <c r="D20" s="14">
+        <v>1</v>
+      </c>
+      <c r="E20" s="24"/>
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
@@ -1024,15 +1012,10 @@
       <c r="C21" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="12">
-        <v>1111</v>
-      </c>
-      <c r="E21" s="9">
-        <v>44088</v>
-      </c>
-      <c r="F21" s="11">
-        <v>1</v>
-      </c>
+      <c r="D21" s="14">
+        <v>1</v>
+      </c>
+      <c r="E21" s="24"/>
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
@@ -1042,15 +1025,10 @@
       <c r="C22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="12">
-        <v>2222</v>
-      </c>
-      <c r="E22" s="9">
-        <v>43835</v>
-      </c>
-      <c r="F22" s="11">
-        <v>1</v>
-      </c>
+      <c r="D22" s="14">
+        <v>1</v>
+      </c>
+      <c r="E22" s="24"/>
       <c r="O22" s="4"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
@@ -1060,15 +1038,10 @@
       <c r="C23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="12">
-        <v>3333</v>
-      </c>
-      <c r="E23" s="9">
-        <v>44656</v>
-      </c>
-      <c r="F23" s="11">
-        <v>1</v>
-      </c>
+      <c r="D23" s="14">
+        <v>1</v>
+      </c>
+      <c r="E23" s="24"/>
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
@@ -1078,15 +1051,10 @@
       <c r="C24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="12">
-        <v>1111</v>
-      </c>
-      <c r="E24" s="9">
-        <v>43811</v>
-      </c>
-      <c r="F24" s="11">
-        <v>1</v>
-      </c>
+      <c r="D24" s="14">
+        <v>1</v>
+      </c>
+      <c r="E24" s="24"/>
       <c r="O24" s="4"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
@@ -1096,15 +1064,10 @@
       <c r="C25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="12">
-        <v>2222</v>
-      </c>
-      <c r="E25" s="9">
-        <v>44088</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1</v>
-      </c>
+      <c r="D25" s="14">
+        <v>1</v>
+      </c>
+      <c r="E25" s="24"/>
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
@@ -1114,15 +1077,10 @@
       <c r="C26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="12">
-        <v>3333</v>
-      </c>
-      <c r="E26" s="9">
-        <v>44022</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1</v>
-      </c>
+      <c r="D26" s="14">
+        <v>1</v>
+      </c>
+      <c r="E26" s="24"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
@@ -1131,15 +1089,10 @@
       <c r="C27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="12">
-        <v>1111</v>
-      </c>
-      <c r="E27" s="9">
-        <v>43835</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1</v>
-      </c>
+      <c r="D27" s="14">
+        <v>1</v>
+      </c>
+      <c r="E27" s="24"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
@@ -1148,15 +1101,10 @@
       <c r="C28" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="12">
-        <v>2222</v>
-      </c>
-      <c r="E28" s="9">
-        <v>44656</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1</v>
-      </c>
+      <c r="D28" s="14">
+        <v>1</v>
+      </c>
+      <c r="E28" s="24"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
@@ -1168,15 +1116,10 @@
       <c r="C29" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="12">
-        <v>3333</v>
-      </c>
-      <c r="E29" s="9">
-        <v>43811</v>
-      </c>
-      <c r="F29" s="11">
-        <v>1</v>
-      </c>
+      <c r="D29" s="14">
+        <v>1</v>
+      </c>
+      <c r="E29" s="24"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
@@ -1188,15 +1131,10 @@
       <c r="C30" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="12">
-        <v>2222</v>
-      </c>
-      <c r="E30" s="9">
-        <v>44412</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
+      <c r="D30" s="14">
+        <v>1</v>
+      </c>
+      <c r="E30" s="24"/>
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
@@ -1206,14 +1144,14 @@
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="20"/>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -1303,15 +1241,15 @@
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="F41" s="20" t="s">
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="F41" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G41" s="20"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
@@ -1323,10 +1261,10 @@
       <c r="D42" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="12" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1340,11 +1278,11 @@
       <c r="D43" s="3">
         <v>1</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F43" s="13">
+        <v>1</v>
+      </c>
+      <c r="G43" s="13">
         <v>3</v>
-      </c>
-      <c r="G43" s="14">
-        <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
@@ -1357,11 +1295,11 @@
       <c r="D44" s="3">
         <v>1</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F44" s="13">
+        <v>1</v>
+      </c>
+      <c r="G44" s="13">
         <v>9</v>
-      </c>
-      <c r="G44" s="14">
-        <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -1374,11 +1312,11 @@
       <c r="D45" s="3">
         <v>1</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F45" s="13">
+        <v>1</v>
+      </c>
+      <c r="G45" s="13">
         <v>10</v>
-      </c>
-      <c r="G45" s="14">
-        <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
@@ -1387,12 +1325,12 @@
       <c r="D46" s="7"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="15"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C48" s="16"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>50</v>
       </c>
@@ -1400,15 +1338,16 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
         <v>3</v>
       </c>
       <c r="C50" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="23"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
         <v>7</v>
       </c>
@@ -1416,19 +1355,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="15" t="s">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>65</v>
       </c>
@@ -1442,7 +1381,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
         <v>1</v>
       </c>
@@ -1456,7 +1395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
         <v>2</v>
       </c>
@@ -1470,13 +1409,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="15" t="s">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="15"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C61" s="16"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>61</v>
       </c>
@@ -1484,7 +1423,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
         <v>1</v>
       </c>
@@ -1492,7 +1431,7 @@
         <v>44479</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
         <v>2</v>
       </c>
@@ -1509,10 +1448,10 @@
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="15"/>
+      <c r="C68" s="16"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
@@ -1555,12 +1494,12 @@
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
       <c r="F76" t="s">
         <v>80</v>
       </c>
@@ -1630,12 +1569,12 @@
       <c r="E81" s="3"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
       <c r="F83" t="s">
         <v>81</v>
       </c>
@@ -1717,7 +1656,7 @@
     <mergeCell ref="B55:E55"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TP Labo.xlsx
+++ b/TP Labo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel-Pentium\Documents\GitHub\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C85F0E-C230-4401-9FF4-81A644627C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957A685B-D643-4269-A7D8-22ED74C17662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{20118FB4-9FAA-4452-8E10-A532ECB2795D}"/>
   </bookViews>
@@ -276,12 +276,6 @@
     <t>Crema</t>
   </si>
   <si>
-    <t>es como agregar u producto?</t>
-  </si>
-  <si>
-    <t>es como dar de baja del stock?</t>
-  </si>
-  <si>
     <t>ProductosxPlatillo</t>
   </si>
   <si>
@@ -289,6 +283,12 @@
   </si>
   <si>
     <t>Idproducto</t>
+  </si>
+  <si>
+    <t>agrega una cantidad al producto existente</t>
+  </si>
+  <si>
+    <t>retira una cantidad del producto existente</t>
   </si>
 </sst>
 </file>
@@ -446,6 +446,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -459,9 +462,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -778,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745E18C5-E32C-461E-B794-7FB3EE38D00A}">
   <dimension ref="B2:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,11 +802,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -853,13 +853,13 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
@@ -942,13 +942,13 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
@@ -975,7 +975,7 @@
       <c r="D18" s="14">
         <v>1</v>
       </c>
-      <c r="E18" s="24"/>
+      <c r="E18" s="17"/>
       <c r="G18" s="5"/>
       <c r="O18" s="4"/>
     </row>
@@ -989,7 +989,7 @@
       <c r="D19" s="14">
         <v>1</v>
       </c>
-      <c r="E19" s="24"/>
+      <c r="E19" s="17"/>
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
@@ -1002,7 +1002,7 @@
       <c r="D20" s="14">
         <v>1</v>
       </c>
-      <c r="E20" s="24"/>
+      <c r="E20" s="17"/>
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
@@ -1015,7 +1015,7 @@
       <c r="D21" s="14">
         <v>1</v>
       </c>
-      <c r="E21" s="24"/>
+      <c r="E21" s="17"/>
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
@@ -1028,7 +1028,7 @@
       <c r="D22" s="14">
         <v>1</v>
       </c>
-      <c r="E22" s="24"/>
+      <c r="E22" s="17"/>
       <c r="O22" s="4"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
@@ -1041,7 +1041,7 @@
       <c r="D23" s="14">
         <v>1</v>
       </c>
-      <c r="E23" s="24"/>
+      <c r="E23" s="17"/>
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
@@ -1054,7 +1054,7 @@
       <c r="D24" s="14">
         <v>1</v>
       </c>
-      <c r="E24" s="24"/>
+      <c r="E24" s="17"/>
       <c r="O24" s="4"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
@@ -1067,7 +1067,7 @@
       <c r="D25" s="14">
         <v>1</v>
       </c>
-      <c r="E25" s="24"/>
+      <c r="E25" s="17"/>
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
@@ -1080,7 +1080,7 @@
       <c r="D26" s="14">
         <v>1</v>
       </c>
-      <c r="E26" s="24"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
@@ -1092,7 +1092,7 @@
       <c r="D27" s="14">
         <v>1</v>
       </c>
-      <c r="E27" s="24"/>
+      <c r="E27" s="17"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
@@ -1104,7 +1104,7 @@
       <c r="D28" s="14">
         <v>1</v>
       </c>
-      <c r="E28" s="24"/>
+      <c r="E28" s="17"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
@@ -1119,7 +1119,7 @@
       <c r="D29" s="14">
         <v>1</v>
       </c>
-      <c r="E29" s="24"/>
+      <c r="E29" s="17"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
@@ -1134,7 +1134,7 @@
       <c r="D30" s="14">
         <v>1</v>
       </c>
-      <c r="E30" s="24"/>
+      <c r="E30" s="17"/>
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
@@ -1144,14 +1144,14 @@
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="20"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="23"/>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -1241,15 +1241,15 @@
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="F41" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G41" s="21"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="F41" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" s="24"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
@@ -1262,10 +1262,10 @@
         <v>57</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
@@ -1325,10 +1325,10 @@
       <c r="D46" s="7"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="16"/>
+      <c r="C48" s="19"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
@@ -1345,7 +1345,7 @@
       <c r="C50" s="3">
         <v>50</v>
       </c>
-      <c r="F50" s="23"/>
+      <c r="F50" s="16"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
@@ -1360,12 +1360,12 @@
       <c r="C52" s="3"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
@@ -1410,10 +1410,10 @@
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="16"/>
+      <c r="C61" s="19"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
@@ -1448,10 +1448,10 @@
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="16"/>
+      <c r="C68" s="19"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
@@ -1494,14 +1494,14 @@
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
       <c r="F76" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
@@ -1569,14 +1569,14 @@
       <c r="E81" s="3"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
       <c r="F83" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">

--- a/TP Labo.xlsx
+++ b/TP Labo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel-Pentium\Documents\GitHub\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957A685B-D643-4269-A7D8-22ED74C17662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDF6CF9-23A3-4AF0-8CFC-73E38CB32DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{20118FB4-9FAA-4452-8E10-A532ECB2795D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="87">
   <si>
     <t>Producto</t>
   </si>
@@ -289,6 +289,12 @@
   </si>
   <si>
     <t>retira una cantidad del producto existente</t>
+  </si>
+  <si>
+    <t>fechaVencimiento</t>
+  </si>
+  <si>
+    <t>calorias</t>
   </si>
 </sst>
 </file>
@@ -332,7 +338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -405,11 +411,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -447,8 +490,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -461,7 +506,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -778,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745E18C5-E32C-461E-B794-7FB3EE38D00A}">
   <dimension ref="B2:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50:C51"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,14 +990,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
+    <row r="15" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="17"/>
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
@@ -959,9 +1009,11 @@
         <v>46</v>
       </c>
       <c r="D17" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="4"/>
       <c r="G17" s="5"/>
       <c r="O17" s="7"/>
     </row>
@@ -972,10 +1024,12 @@
       <c r="C18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="14">
-        <v>1</v>
-      </c>
-      <c r="E18" s="17"/>
+      <c r="D18" s="10">
+        <v>44723</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
       <c r="G18" s="5"/>
       <c r="O18" s="4"/>
     </row>
@@ -986,10 +1040,12 @@
       <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="14">
-        <v>1</v>
-      </c>
-      <c r="E19" s="17"/>
+      <c r="D19" s="10">
+        <v>44724</v>
+      </c>
+      <c r="E19" s="14">
+        <v>1</v>
+      </c>
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
@@ -999,10 +1055,12 @@
       <c r="C20" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="14">
-        <v>1</v>
-      </c>
-      <c r="E20" s="17"/>
+      <c r="D20" s="10">
+        <v>44725</v>
+      </c>
+      <c r="E20" s="14">
+        <v>1</v>
+      </c>
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
@@ -1012,10 +1070,12 @@
       <c r="C21" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="14">
-        <v>1</v>
-      </c>
-      <c r="E21" s="17"/>
+      <c r="D21" s="10">
+        <v>44732</v>
+      </c>
+      <c r="E21" s="14">
+        <v>1</v>
+      </c>
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
@@ -1025,10 +1085,12 @@
       <c r="C22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="14">
-        <v>1</v>
-      </c>
-      <c r="E22" s="17"/>
+      <c r="D22" s="10">
+        <v>44723</v>
+      </c>
+      <c r="E22" s="14">
+        <v>1</v>
+      </c>
       <c r="O22" s="4"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
@@ -1038,10 +1100,12 @@
       <c r="C23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="14">
-        <v>1</v>
-      </c>
-      <c r="E23" s="17"/>
+      <c r="D23" s="10">
+        <v>44724</v>
+      </c>
+      <c r="E23" s="14">
+        <v>1</v>
+      </c>
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
@@ -1051,10 +1115,12 @@
       <c r="C24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="14">
-        <v>1</v>
-      </c>
-      <c r="E24" s="17"/>
+      <c r="D24" s="10">
+        <v>44725</v>
+      </c>
+      <c r="E24" s="14">
+        <v>1</v>
+      </c>
       <c r="O24" s="4"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
@@ -1064,10 +1130,12 @@
       <c r="C25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="14">
-        <v>1</v>
-      </c>
-      <c r="E25" s="17"/>
+      <c r="D25" s="10">
+        <v>44732</v>
+      </c>
+      <c r="E25" s="14">
+        <v>1</v>
+      </c>
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
@@ -1077,10 +1145,12 @@
       <c r="C26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="14">
-        <v>1</v>
-      </c>
-      <c r="E26" s="17"/>
+      <c r="D26" s="10">
+        <v>44723</v>
+      </c>
+      <c r="E26" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
@@ -1089,10 +1159,12 @@
       <c r="C27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="14">
-        <v>1</v>
-      </c>
-      <c r="E27" s="17"/>
+      <c r="D27" s="10">
+        <v>44724</v>
+      </c>
+      <c r="E27" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
@@ -1101,10 +1173,12 @@
       <c r="C28" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="14">
-        <v>1</v>
-      </c>
-      <c r="E28" s="17"/>
+      <c r="D28" s="10">
+        <v>44725</v>
+      </c>
+      <c r="E28" s="14">
+        <v>1</v>
+      </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
@@ -1116,10 +1190,12 @@
       <c r="C29" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="14">
-        <v>1</v>
-      </c>
-      <c r="E29" s="17"/>
+      <c r="D29" s="10">
+        <v>44732</v>
+      </c>
+      <c r="E29" s="14">
+        <v>1</v>
+      </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
@@ -1131,10 +1207,12 @@
       <c r="C30" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="14">
-        <v>1</v>
-      </c>
-      <c r="E30" s="17"/>
+      <c r="D30" s="10">
+        <v>44723</v>
+      </c>
+      <c r="E30" s="14">
+        <v>1</v>
+      </c>
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
@@ -1167,7 +1245,10 @@
       <c r="E34" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>64</v>
       </c>
       <c r="M34" s="5"/>
@@ -1186,6 +1267,9 @@
         <v>1</v>
       </c>
       <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1203,6 +1287,9 @@
         <v>1</v>
       </c>
       <c r="F36" s="3">
+        <v>200</v>
+      </c>
+      <c r="G36" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1220,6 +1307,9 @@
         <v>2</v>
       </c>
       <c r="F37" s="3">
+        <v>100</v>
+      </c>
+      <c r="G37" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1237,6 +1327,9 @@
         <v>3</v>
       </c>
       <c r="F38" s="3">
+        <v>200</v>
+      </c>
+      <c r="G38" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1656,7 +1749,7 @@
     <mergeCell ref="B55:E55"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
